--- a/medicine/Enfance/Zilpha_Keatley_Snyder/Zilpha_Keatley_Snyder.xlsx
+++ b/medicine/Enfance/Zilpha_Keatley_Snyder/Zilpha_Keatley_Snyder.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Zilpha Keatley Snyder, née le 11 mai 1927 à Lemoore en Californie et morte le 8 octobre 2014 (à 87 ans) à San Francisco, est une écrivaine américaine de livres pour la jeunesse. Elle est l'auteure de quarante-trois ouvrages entre 1964 et 2011, dont trois ont été finalistes de la médaille Newbery : The Egypt Game (1968), The Headless Cupid (1972) et The Witches of Worm (1973)[1]. Ses domaines de prédilection sont les récits d'aventures et le fantastique.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Zilpha Keatley Snyder, née le 11 mai 1927 à Lemoore en Californie et morte le 8 octobre 2014 (à 87 ans) à San Francisco, est une écrivaine américaine de livres pour la jeunesse. Elle est l'auteure de quarante-trois ouvrages entre 1964 et 2011, dont trois ont été finalistes de la médaille Newbery : The Egypt Game (1968), The Headless Cupid (1972) et The Witches of Worm (1973). Ses domaines de prédilection sont les récits d'aventures et le fantastique.
 </t>
         </is>
       </c>
@@ -513,8 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Romans
-1964 : Season of Ponies
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>1964 : Season of Ponies
 1965 : The Velvet Room
 1966 : Zilpha Keatley Snyder
 1967 : Black and Blue Magic
@@ -544,27 +561,7 @@
 2006 : The Treasures Of Weatherby
 2008 : The Bronze Pen
 2009 : William S and the Great Escape
-2011 : William's Midsummer Dreams
-Série Games
-1967 : The Egypt Game
-1997 : The Gypsy Game
-Série Stanley Family
-1971 : The Headless Cupid
-1979 : The Famous Stanley Kidnapping Case
-1985 : Blair's Nightmare
-1989 : Janie's Private Eyes
-Trilogie Green Sky
-1975 : Below the Root
-1976 : And All Between
-1977 : Until the Celebration
-Série Castle Court
-1995 : The Box and the Bone
-1995 : The Diamond War
-1995 : Ghost Invasion
-1995 : Secret Weapons
-Série Gib
-1998 : Gib Rides Home
-2000 : Gib and the Gray Ghost</t>
+2011 : William's Midsummer Dreams</t>
         </is>
       </c>
     </row>
@@ -589,16 +586,208 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Ouvrages</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Série Games</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>1967 : The Egypt Game
+1997 : The Gypsy Game</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Zilpha_Keatley_Snyder</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Zilpha_Keatley_Snyder</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Ouvrages</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Série Stanley Family</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>1971 : The Headless Cupid
+1979 : The Famous Stanley Kidnapping Case
+1985 : Blair's Nightmare
+1989 : Janie's Private Eyes</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Zilpha_Keatley_Snyder</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Zilpha_Keatley_Snyder</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Ouvrages</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Trilogie Green Sky</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>1975 : Below the Root
+1976 : And All Between
+1977 : Until the Celebration</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Zilpha_Keatley_Snyder</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Zilpha_Keatley_Snyder</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Ouvrages</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Série Castle Court</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>1995 : The Box and the Bone
+1995 : The Diamond War
+1995 : Ghost Invasion
+1995 : Secret Weapons</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Zilpha_Keatley_Snyder</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Zilpha_Keatley_Snyder</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Ouvrages</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Série Gib</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>1998 : Gib Rides Home
+2000 : Gib and the Gray Ghost</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Zilpha_Keatley_Snyder</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Zilpha_Keatley_Snyder</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>La carrière littéraire de Zilpha Keatley Snyder a été récompensée à trois reprises par la médaille Newbery, l'un des premiers prix créés pour des livres destinés à la jeunesse[2].
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>La carrière littéraire de Zilpha Keatley Snyder a été récompensée à trois reprises par la médaille Newbery, l'un des premiers prix créés pour des livres destinés à la jeunesse.
 1968 : Finaliste médaille Newbery pour The Egypt Game
 1972 : Finaliste médaille Newbery pour The Headless Cupid
 1973 : Finaliste médaille Newbery pour The Witches of Worm
-1974 : (international) « Honor List »[3], de l' IBBY, pour The Headless Cupid</t>
+1974 : (international) « Honor List », de l' IBBY, pour The Headless Cupid</t>
         </is>
       </c>
     </row>
